--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cjx\UnityDell\GameServer\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\UnityPrj\GameServer\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5E73E8-3649-4C23-9F2A-4B36AA5E1B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8115"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Id</t>
   </si>
@@ -38,15 +39,11 @@
   <si>
     <t>int</t>
   </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -487,9 +484,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="3">
         <v>2</v>
       </c>
